--- a/DATA_goal/Junction_Flooding_496.xlsx
+++ b/DATA_goal/Junction_Flooding_496.xlsx
@@ -449,7 +449,7 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -655,103 +655,103 @@
         <v>44827.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44827.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.8</v>
+        <v>17.99</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.24</v>
+        <v>72.37</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.07</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="4">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>0</v>
@@ -967,103 +967,103 @@
         <v>44827.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_496.xlsx
+++ b/DATA_goal/Junction_Flooding_496.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44827.54861111111</v>
+        <v>45177.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44827.55555555555</v>
+        <v>45177.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.05</v>
+        <v>4.17</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.94</v>
+        <v>2.692</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>1.351</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.13</v>
+        <v>9.346</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.29</v>
+        <v>6.551</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.78</v>
+        <v>3.159</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.99</v>
+        <v>15.545</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.54</v>
+        <v>5.236</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.49</v>
+        <v>2.04</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.07</v>
+        <v>2.683</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.35</v>
+        <v>3.685</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.66</v>
+        <v>4.056</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.095</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.31</v>
+        <v>3.384</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.94</v>
+        <v>4.604</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.65</v>
+        <v>3.318</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.64</v>
+        <v>1.278</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.653</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.37</v>
+        <v>44.217</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.07</v>
+        <v>9.69</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.36</v>
+        <v>3.123</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.31</v>
+        <v>6.046</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.04</v>
+        <v>3.02</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.033</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>7.694</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.67</v>
+        <v>2.759</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.05</v>
+        <v>2.687</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.57</v>
+        <v>3.164</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.93</v>
+        <v>3.788</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.1</v>
+        <v>14.848</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3</v>
+        <v>1.537</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.76</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44827.5625</v>
+        <v>45177.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>19.572</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>14.461</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>42.832</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>34.601</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>15.322</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.28</v>
+        <v>55.648</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>23.851</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>10.477</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>15.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>17.157</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>18.282</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>15.414</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>21.824</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>13.144</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.907</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>227.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>42.995</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.08</v>
+        <v>14.228</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.57</v>
+        <v>28.738</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>15.071</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.01</v>
+        <v>2.411</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.22</v>
+        <v>27.798</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>12.568</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>11.213</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>13.191</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>17.988</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.55</v>
+        <v>50.556</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>7.937</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44827.56944444445</v>
+        <v>45177.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.43</v>
+        <v>17.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.09</v>
+        <v>12.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.19</v>
+        <v>37.62</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.07</v>
+        <v>30.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.97</v>
+        <v>13.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.33</v>
+        <v>53.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.72</v>
+        <v>20.94</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6</v>
+        <v>9.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.25</v>
+        <v>13.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.39</v>
+        <v>15.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>4.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.09</v>
+        <v>13.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.38</v>
+        <v>19.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>11.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.74</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.41</v>
+        <v>198.7</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.71</v>
+        <v>37.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.03</v>
+        <v>12.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.83</v>
+        <v>25.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.98</v>
+        <v>13.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>2.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.52</v>
+        <v>25.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>11.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.77</v>
+        <v>9.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.95</v>
+        <v>11.56</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>15.82</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.6</v>
+        <v>48.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44827.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>113.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.06</v>
+        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_496.xlsx
+++ b/DATA_goal/Junction_Flooding_496.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45177.50694444445</v>
+        <v>44827.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.425000000000001</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.488</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.776</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.765</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.191</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.707</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.218</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.112</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.928</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.255</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.151</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.871</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.122999999999999</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.592</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.125</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.067</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.004</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.226000000000001</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.728</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.858</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.276</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.652</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.378</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.869</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.432</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.957</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.713</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45177.51388888889</v>
+        <v>44827.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.17</v>
+        <v>7.051</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.692</v>
+        <v>5.942</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.351</v>
+        <v>0.042</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.346</v>
+        <v>13.133</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.551</v>
+        <v>13.288</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.159</v>
+        <v>4.782</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.545</v>
+        <v>17.986</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.236</v>
+        <v>7.541</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.04</v>
+        <v>3.494</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.683</v>
+        <v>6.074</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.685</v>
+        <v>6.353</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.056</v>
+        <v>6.659</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.095</v>
+        <v>1.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.384</v>
+        <v>5.305</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.604</v>
+        <v>6.938</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.318</v>
+        <v>3.647</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.278</v>
+        <v>0.644</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.653</v>
+        <v>0.427</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.217</v>
+        <v>72.367</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.69</v>
+        <v>14.065</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.123</v>
+        <v>5.357</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.046</v>
+        <v>10.314</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.02</v>
+        <v>5.044</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.033</v>
+        <v>0.704</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.694</v>
+        <v>8.286</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.759</v>
+        <v>3.672</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.687</v>
+        <v>4.047</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.164</v>
+        <v>4.565</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.788</v>
+        <v>6.935</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.165</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.848</v>
+        <v>15.101</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.537</v>
+        <v>2.996</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.907</v>
+        <v>5.761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45177.52083333334</v>
+        <v>44827.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.572</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.461</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>42.832</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.601</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.322</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.648</v>
+        <v>3.285</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.851</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.477</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.42</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.157</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.282</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.414</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.824</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.144</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.907</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>227.29</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.995</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.228</v>
+        <v>0.078</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.738</v>
+        <v>0.571</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.071</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.411</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.798</v>
+        <v>1.223</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.568</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.213</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.191</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.988</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.556</v>
+        <v>3.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.937</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45177.52777777778</v>
+        <v>44827.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.19</v>
+        <v>1.428</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.76</v>
+        <v>1.085</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.082</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.62</v>
+        <v>3.192</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.48</v>
+        <v>3.067</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.47</v>
+        <v>1.975</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.42</v>
+        <v>4.326</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.94</v>
+        <v>1.723</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.603</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>10.406</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.715</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.314</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.602</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44827.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>113.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>9.25</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>37.88</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>15.62</v>
+      <c r="AE6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.06</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_496.xlsx
+++ b/DATA_goal/Junction_Flooding_496.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44827.54861111111</v>
+        <v>45177.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44827.55555555555</v>
+        <v>45177.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.051</v>
+        <v>4.17</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.942</v>
+        <v>2.692</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.042</v>
+        <v>1.351</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.133</v>
+        <v>9.346</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.288</v>
+        <v>6.551</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.782</v>
+        <v>3.159</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.986</v>
+        <v>15.545</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.541</v>
+        <v>5.236</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.494</v>
+        <v>2.04</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.074</v>
+        <v>2.683</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.353</v>
+        <v>3.685</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.659</v>
+        <v>4.056</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.095</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.305</v>
+        <v>3.384</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.938</v>
+        <v>4.604</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.647</v>
+        <v>3.318</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.644</v>
+        <v>1.278</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.427</v>
+        <v>0.653</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.367</v>
+        <v>44.217</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.065</v>
+        <v>9.69</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.357</v>
+        <v>3.123</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.314</v>
+        <v>6.046</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.044</v>
+        <v>3.02</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.704</v>
+        <v>1.033</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.286</v>
+        <v>7.694</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.672</v>
+        <v>2.759</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.047</v>
+        <v>2.687</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.565</v>
+        <v>3.164</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.935</v>
+        <v>3.788</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.101</v>
+        <v>14.848</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.996</v>
+        <v>1.537</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.761</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44827.5625</v>
+        <v>45177.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>19.572</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>14.461</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>42.832</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>34.601</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>15.322</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.285</v>
+        <v>55.648</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>23.851</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>10.477</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>15.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>17.157</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>18.282</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>15.414</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>21.824</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>13.144</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.907</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>227.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>42.995</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.078</v>
+        <v>14.228</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.571</v>
+        <v>28.738</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>15.071</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.008999999999999999</v>
+        <v>2.411</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.223</v>
+        <v>27.798</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>12.568</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>11.213</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>13.191</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>17.988</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.55</v>
+        <v>50.556</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>7.937</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44827.56944444445</v>
+        <v>45177.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.428</v>
+        <v>17.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.085</v>
+        <v>12.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.082</v>
+        <v>1.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.192</v>
+        <v>37.62</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.067</v>
+        <v>30.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.975</v>
+        <v>13.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.326</v>
+        <v>53.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.723</v>
+        <v>20.94</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.601</v>
+        <v>9.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.25</v>
+        <v>13.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.386</v>
+        <v>15.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.603</v>
+        <v>16.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.343</v>
+        <v>4.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.095</v>
+        <v>13.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.375</v>
+        <v>19.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9360000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.041</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.112</v>
+        <v>0.74</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.406</v>
+        <v>198.7</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.715</v>
+        <v>37.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.029</v>
+        <v>12.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.831</v>
+        <v>25.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.978</v>
+        <v>13.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.152</v>
+        <v>2.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.525</v>
+        <v>25.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.918</v>
+        <v>11.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.771</v>
+        <v>9.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.945</v>
+        <v>11.56</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.314</v>
+        <v>15.82</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.019</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.602</v>
+        <v>48.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.235</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44827.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>113.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.06</v>
+        <v>15.62</v>
       </c>
     </row>
   </sheetData>
